--- a/elemnt_info_datas/element_infos.xlsx
+++ b/elemnt_info_datas/element_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习资料\python脚本框架\PO_chandao_01_03\elemnt_info_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25677C9B-079D-46A8-A800-2B4CA6EAAB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E45451-3293-4F1D-9F7F-EAC7E1F86A21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10488" yWindow="1572" windowWidth="11868" windowHeight="8808" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>26</v>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -1076,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
@@ -1096,7 +1096,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>44</v>
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395DA72C-6C8A-414D-9AB6-9D879DBCCD30}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
